--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976622.9414859709</v>
+        <v>-979472.3636752989</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>87.57562118937832</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>107.9469038992459</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>6.596015618368514</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>24.88933481070165</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>395.0900949779792</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>146.6850513083905</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>101.3944859595954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>264.5862270071265</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1190,10 +1190,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>34.4985368501049</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>4.533690480907129</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>100.1536797835649</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.1319933510085</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>20.43112068613158</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>70.5897499147908</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.15991070832</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>280.8865260012963</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.34574348918484</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>71.2247518360507</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>107.9721668030643</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>170.8317276803722</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>26.27614159852221</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>40.57972681915298</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>166.0266533411973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308909</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652588</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.778685247039</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2081.263725735255</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>1728.495070465141</v>
       </c>
       <c r="X2" t="n">
-        <v>1707.918017222851</v>
+        <v>1728.495070465141</v>
       </c>
       <c r="Y2" t="n">
-        <v>1317.778685247039</v>
+        <v>1338.355738489329</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.027325963587</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>184.027325963587</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>184.027325963587</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.027325963587</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.375564375168</v>
+        <v>1194.175505447097</v>
       </c>
       <c r="C5" t="n">
-        <v>785.4130474347567</v>
+        <v>825.212988506685</v>
       </c>
       <c r="D5" t="n">
-        <v>427.1473488280062</v>
+        <v>466.9472898999344</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>466.9472898999344</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177358</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533158</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733143</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224091</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280445</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>2344.38043574811</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.97540443929</v>
+        <v>1970.91467748703</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.97540443929</v>
+        <v>1580.775345511218</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150934</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>325.2978374347314</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1489.289030696849</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="C8" t="n">
-        <v>1489.289030696849</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.023332090098</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="E8" t="n">
-        <v>745.2350794918541</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>738.2895787426506</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>321.2017969790781</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>646.0499938541464</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>1094.463253419562</v>
       </c>
       <c r="M8" t="n">
-        <v>1830.581063083657</v>
+        <v>1281.162666244969</v>
       </c>
       <c r="N8" t="n">
-        <v>2024.91527597564</v>
+        <v>1475.496879136952</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2022.658083904029</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2451.973130243323</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.934053515052</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2326.134191782764</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.657526031085</v>
+        <v>2072.442488527915</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.657526031085</v>
+        <v>1741.379601184344</v>
       </c>
       <c r="W8" t="n">
-        <v>1875.888870760971</v>
+        <v>1706.532594265046</v>
       </c>
       <c r="X8" t="n">
-        <v>1875.888870760971</v>
+        <v>1706.532594265046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1875.888870760971</v>
+        <v>1706.532594265046</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.847838830048</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>142.9741724191613</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>647.3357122852799</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1287.881061752385</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1955.425461779395</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>375.3717436649141</v>
+        <v>663.2951601280365</v>
       </c>
       <c r="C10" t="n">
-        <v>206.4355607370072</v>
+        <v>494.3589772001296</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>344.2423377877939</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972709</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>846.4373785321145</v>
+        <v>952.7123301649972</v>
       </c>
       <c r="V10" t="n">
-        <v>846.4373785321145</v>
+        <v>952.7123301649972</v>
       </c>
       <c r="W10" t="n">
-        <v>557.0202084951538</v>
+        <v>663.2951601280365</v>
       </c>
       <c r="X10" t="n">
-        <v>557.0202084951538</v>
+        <v>663.2951601280365</v>
       </c>
       <c r="Y10" t="n">
-        <v>557.0202084951538</v>
+        <v>663.2951601280365</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8178837532264</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>781.8178837532264</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
         <v>343.0994656851783</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.6442739835331</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2129.60328892373</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1840.528062267928</v>
+        <v>1943.637854965528</v>
       </c>
       <c r="V19" t="n">
-        <v>1585.843574062041</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W19" t="n">
-        <v>1296.426404025081</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X19" t="n">
-        <v>1068.436853127063</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y19" t="n">
-        <v>847.6442739835331</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1905.516886736721</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1650.832398530834</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,16 +5984,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.613315601761</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>888.6771326738537</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>2091.550948547921</v>
       </c>
       <c r="V25" t="n">
-        <v>1977.461080510508</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W25" t="n">
-        <v>1688.043910473548</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.05435957553</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y25" t="n">
-        <v>1239.261780432</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>809.0422355233313</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1728.890000432079</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1439.472830395119</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.483279497101</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.6907003535711</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,31 +6692,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>2253.988764961266</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7023,16 +7023,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7163,31 +7163,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7196,25 +7196,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>175.8744207939072</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319333</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656827</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580123</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>315.9123021921482</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,10 +7564,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7576,13 +7576,13 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797253</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192662</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720754</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8456,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284466</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>147.6308118193897</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>21.63976862165639</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>96.12069185784512</v>
+        <v>473.623897347824</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-12</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.2963243175923</v>
+        <v>263.5798524095627</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>240.1766372807566</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>261.7841967792231</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>16.63754732114094</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>86.99395161137552</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.45266000108796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>126.0028419604376</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>146.8157004124974</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>84.24553961896822</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>5.297948387947827</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.4862366927525</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>214.9597225531934</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.64330621514807</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>115.352746708872</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>225.8615017253058</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>185.1299285698842</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>120.1578210480468</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6.963318810448982e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.654232434377241e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1086376.121648346</v>
+        <v>1086376.121648345</v>
       </c>
     </row>
     <row r="3">
@@ -26314,46 +26314,46 @@
         <v>169252.1408943218</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="F2" t="n">
         <v>201786.6499225015</v>
-      </c>
-      <c r="F2" t="n">
-        <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660713</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660713</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.442466071</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,31 +26381,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363189</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080582</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>127713.0035258958</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630332</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.53656668275</v>
+        <v>5677.536566682708</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682688</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682762</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
+        <v>13668.39582977619</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13668.39582977619</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13668.39582977619</v>
+      </c>
+      <c r="O4" t="n">
         <v>13668.39582977621</v>
       </c>
-      <c r="M4" t="n">
-        <v>13668.39582977623</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13668.3958297762</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13668.3958297762</v>
-      </c>
       <c r="P4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084683</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-631287.819909528</v>
+        <v>-631647.9029252453</v>
       </c>
       <c r="C6" t="n">
         <v>-87521.05106037206</v>
       </c>
       <c r="D6" t="n">
-        <v>-243324.8571541668</v>
+        <v>-243324.8571541669</v>
       </c>
       <c r="E6" t="n">
-        <v>-676066.1078488947</v>
+        <v>-676100.8457743302</v>
       </c>
       <c r="F6" t="n">
-        <v>94986.5835319117</v>
+        <v>94951.84560647595</v>
       </c>
       <c r="G6" t="n">
-        <v>94986.58353191179</v>
+        <v>94951.8456064761</v>
       </c>
       <c r="H6" t="n">
-        <v>94986.58353191173</v>
+        <v>94951.84560647559</v>
       </c>
       <c r="I6" t="n">
-        <v>94986.58353191173</v>
+        <v>94951.845606476</v>
       </c>
       <c r="J6" t="n">
-        <v>-81436.63566068131</v>
+        <v>-81471.37358611701</v>
       </c>
       <c r="K6" t="n">
-        <v>94986.58353191159</v>
+        <v>94951.8456064763</v>
       </c>
       <c r="L6" t="n">
-        <v>69000.21278874786</v>
+        <v>69000.2127887478</v>
       </c>
       <c r="M6" t="n">
-        <v>-35780.57992567899</v>
+        <v>-35780.5799256785</v>
       </c>
       <c r="N6" t="n">
-        <v>88427.93078237916</v>
+        <v>88427.93078237929</v>
       </c>
       <c r="O6" t="n">
-        <v>88427.93078237934</v>
+        <v>88427.93078237941</v>
       </c>
       <c r="P6" t="n">
-        <v>88427.93078237928</v>
+        <v>88427.93078237932</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26823,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26987,13 +26987,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450923</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.9765674534153</v>
+        <v>101.6930393614448</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>211.9886377337263</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>357.0410352615601</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>11.78595076373222</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,13 +27664,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>20.56176979023735</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>117.1901673924994</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>50.45465706808903</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>314.7424318673081</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>144.0817825373052</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>186.1069748745321</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-9.001811836948478e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,13 +32078,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L15" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338196</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>338.6542681503486</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>208.6096528357818</v>
+        <v>652.047896915769</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149939</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>399.0581126127094</v>
+        <v>543.0832917018706</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>220.7280629601522</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>362.180468412921</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,28 +34448,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181326</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297124</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>319.5187161799549</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>89.93049555434025</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35261,16 +35261,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>296.7840672645771</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L15" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394542</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>196.0580237059041</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>66.47561891376348</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>263.67989750701</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>508.1286233929756</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>265.0837051983791</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37479,7 +37479,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243171</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>82.88662398579322</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>224.339029438562</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
         <v>144.6869047919381</v>
